--- a/36V single OP version/BOM/RF-36-S1.xlsx
+++ b/36V single OP version/BOM/RF-36-S1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kzhou\Desktop\RF projects\RF 36V motor controller\PCB-project\36V single OP version\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447A9640-B6B8-408D-AA71-5DC81BDB7116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773D2A3F-DA28-4118-985B-3C824E40AE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4421A9F6-E6B4-4267-8BAF-1C72FE7782F8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="131">
   <si>
     <t>Comment</t>
   </si>
@@ -415,6 +415,21 @@
   </si>
   <si>
     <t>HT7550-1</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>0..2</t>
+  </si>
+  <si>
+    <t>PCB 2.3</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>？？</t>
   </si>
 </sst>
 </file>
@@ -444,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -467,11 +482,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -480,9 +508,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,18 +833,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="6" width="18.81640625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -827,11 +861,14 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="G1" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -847,11 +884,11 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -867,11 +904,11 @@
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -887,11 +924,14 @@
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -907,11 +947,11 @@
       <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -927,11 +967,11 @@
       <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -947,11 +987,11 @@
       <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -967,11 +1007,14 @@
       <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G8" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -987,11 +1030,11 @@
       <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -1007,11 +1050,14 @@
       <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -1027,11 +1073,14 @@
       <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -1047,11 +1096,14 @@
       <c r="E12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>56</v>
       </c>
@@ -1067,11 +1119,14 @@
       <c r="E13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
@@ -1087,11 +1142,14 @@
       <c r="E14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G14" s="7">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
@@ -1107,11 +1165,14 @@
       <c r="E15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
@@ -1127,11 +1188,11 @@
       <c r="E16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -1147,11 +1208,11 @@
       <c r="E17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>73</v>
       </c>
@@ -1167,11 +1228,11 @@
       <c r="E18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>80</v>
       </c>
@@ -1187,11 +1248,11 @@
       <c r="E19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
@@ -1207,11 +1268,14 @@
       <c r="E20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="G20" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
@@ -1227,11 +1291,11 @@
       <c r="E21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
@@ -1247,11 +1311,14 @@
       <c r="E22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>100</v>
       </c>
@@ -1267,11 +1334,11 @@
       <c r="E23" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>105</v>
       </c>
@@ -1287,11 +1354,14 @@
       <c r="E24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>109</v>
       </c>
@@ -1307,11 +1377,14 @@
       <c r="E25" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>112</v>
       </c>
@@ -1327,11 +1400,14 @@
       <c r="E26" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>117</v>
       </c>
@@ -1347,11 +1423,14 @@
       <c r="E27" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>120</v>
       </c>
@@ -1367,8 +1446,26 @@
       <c r="E28" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="4">
-        <v>1</v>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G29" s="7">
+        <f>SUM(G2:G28)</f>
+        <v>25.62</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
